--- a/Literature_Review/data/Performance_Analysis_literature_review.xlsx
+++ b/Literature_Review/data/Performance_Analysis_literature_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianshuliao/Documents/Research/Android_Performance/Artifacts_of_Performance_Issue_Analysis/Literature_Review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1008B84-6CC8-5849-9A4B-81082FFF588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F11FFA-CA34-DC40-A94B-C1D67F4A18EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-2240" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="review list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="637">
   <si>
     <t>Title</t>
   </si>
@@ -2862,9 +2862,6 @@
 https://tqrg.github.io/energy-patterns/#/</t>
   </si>
   <si>
-    <t>Energy Optimisation</t>
-  </si>
-  <si>
     <t>https://ieeexplore.ieee.org/document/10423390</t>
   </si>
   <si>
@@ -3004,6 +3001,37 @@
   </si>
   <si>
     <t>Information and Software Technology</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>Improve Responsiveness</t>
+  </si>
+  <si>
+    <t>Empirical Study of Energy Efficiency</t>
+  </si>
+  <si>
+    <t>Energy Optimisation</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Performance Detection</t>
+  </si>
+  <si>
+    <t>Detect Energy Hotspot</t>
+  </si>
+  <si>
+    <t>Code Repair of Source Leak</t>
+  </si>
+  <si>
+    <t>Empirical Study of GitHub Commits</t>
+  </si>
+  <si>
+    <t>Performance
+Energy Consumption</t>
   </si>
 </sst>
 </file>
@@ -3129,7 +3157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3231,23 +3259,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3475,10 +3487,10 @@
   <dimension ref="A1:AG1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="50" customHeight="1"/>
@@ -5543,7 +5555,7 @@
         <v>216</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5" t="s">
@@ -7026,7 +7038,7 @@
         <v>479</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>57</v>
@@ -7040,7 +7052,9 @@
       <c r="J45" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K45" s="5"/>
+      <c r="K45" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5" t="s">
         <v>434</v>
@@ -7095,16 +7109,18 @@
       <c r="G46" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H46" s="44">
+      <c r="H46" s="38">
         <v>85</v>
       </c>
-      <c r="I46" s="45" t="s">
+      <c r="I46" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J46" s="45" t="s">
+      <c r="J46" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="5"/>
+      <c r="K46" s="5" t="s">
+        <v>627</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5" t="s">
         <v>216</v>
@@ -7155,16 +7171,18 @@
       <c r="G47" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H47" s="44">
+      <c r="H47" s="38">
         <v>85</v>
       </c>
-      <c r="I47" s="45" t="s">
+      <c r="I47" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J47" s="45" t="s">
+      <c r="J47" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K47" s="5"/>
+      <c r="K47" s="5" t="s">
+        <v>628</v>
+      </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5" t="s">
         <v>291</v>
@@ -7212,7 +7230,7 @@
         <v>482</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>57</v>
@@ -7226,7 +7244,9 @@
       <c r="J48" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K48" s="5"/>
+      <c r="K48" s="5" t="s">
+        <v>629</v>
+      </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5" t="s">
         <v>216</v>
@@ -7290,7 +7310,9 @@
       <c r="J49" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K49" s="5"/>
+      <c r="K49" s="5" t="s">
+        <v>630</v>
+      </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5" t="s">
         <v>216</v>
@@ -7340,7 +7362,7 @@
         <v>484</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>57</v>
@@ -7354,7 +7376,9 @@
       <c r="J50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K50" s="5"/>
+      <c r="K50" s="5" t="s">
+        <v>630</v>
+      </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5" t="s">
         <v>216</v>
@@ -7404,7 +7428,7 @@
         <v>485</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>57</v>
@@ -7418,7 +7442,9 @@
       <c r="J51" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K51" s="5"/>
+      <c r="K51" s="5" t="s">
+        <v>631</v>
+      </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5" t="s">
         <v>216</v>
@@ -7468,7 +7494,7 @@
         <v>486</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>57</v>
@@ -7482,7 +7508,9 @@
       <c r="J52" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K52" s="5"/>
+      <c r="K52" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5" t="s">
         <v>216</v>
@@ -7537,16 +7565,18 @@
       <c r="G53" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H53" s="44">
+      <c r="H53" s="38">
         <v>85</v>
       </c>
-      <c r="I53" s="45" t="s">
+      <c r="I53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="45" t="s">
+      <c r="J53" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="5"/>
+      <c r="K53" s="5" t="s">
+        <v>627</v>
+      </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5" t="s">
         <v>216</v>
@@ -7606,7 +7636,9 @@
       <c r="J54" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K54" s="5"/>
+      <c r="K54" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5" t="s">
         <v>216</v>
@@ -7666,7 +7698,9 @@
       <c r="J55" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K55" s="5"/>
+      <c r="K55" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
         <v>306</v>
@@ -7716,7 +7750,7 @@
         <v>490</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>57</v>
@@ -7730,7 +7764,9 @@
       <c r="J56" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K56" s="5"/>
+      <c r="K56" s="5" t="s">
+        <v>632</v>
+      </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5" t="s">
         <v>291</v>
@@ -7790,7 +7826,9 @@
       <c r="J57" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K57" s="5"/>
+      <c r="K57" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5" t="s">
         <v>216</v>
@@ -7838,7 +7876,7 @@
         <v>493</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>57</v>
@@ -7852,7 +7890,9 @@
       <c r="J58" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K58" s="5"/>
+      <c r="K58" s="5" t="s">
+        <v>633</v>
+      </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
         <v>216</v>
@@ -7912,7 +7952,9 @@
       <c r="J59" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K59" s="5"/>
+      <c r="K59" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="L59" s="5"/>
       <c r="M59" s="5" t="s">
         <v>460</v>
@@ -7972,7 +8014,9 @@
       <c r="J60" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K60" s="5"/>
+      <c r="K60" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="L60" s="5"/>
       <c r="M60" s="5" t="s">
         <v>429</v>
@@ -8018,7 +8062,7 @@
         <v>495</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>32</v>
@@ -8032,7 +8076,9 @@
       <c r="J61" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K61" s="5"/>
+      <c r="K61" s="5" t="s">
+        <v>636</v>
+      </c>
       <c r="L61" s="5"/>
       <c r="M61" s="5" t="s">
         <v>464</v>
@@ -8082,7 +8128,7 @@
         <v>496</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>32</v>
@@ -8096,7 +8142,9 @@
       <c r="J62" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K62" s="5"/>
+      <c r="K62" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="L62" s="5"/>
       <c r="M62" s="5" t="s">
         <v>216</v>
@@ -8155,7 +8203,9 @@
       <c r="J63" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K63" s="5"/>
+      <c r="K63" s="5" t="s">
+        <v>634</v>
+      </c>
       <c r="L63" s="5"/>
       <c r="M63" s="5" t="s">
         <v>291</v>
@@ -8221,7 +8271,9 @@
       <c r="J64" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K64" s="5"/>
+      <c r="K64" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="L64" s="5"/>
       <c r="M64" s="5" t="s">
         <v>430</v>
@@ -8285,7 +8337,9 @@
       <c r="J65" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K65" s="5"/>
+      <c r="K65" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="L65" s="5"/>
       <c r="M65" s="5" t="s">
         <v>216</v>
@@ -8349,7 +8403,9 @@
       <c r="J66" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K66" s="5"/>
+      <c r="K66" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="L66" s="5"/>
       <c r="M66" s="5" t="s">
         <v>306</v>
@@ -8413,13 +8469,15 @@
       <c r="J67" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K67" s="5"/>
+      <c r="K67" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="L67" s="5"/>
       <c r="M67" s="5" t="s">
         <v>306</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
@@ -8487,7 +8545,7 @@
         <v>216</v>
       </c>
       <c r="N68" s="30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O68" s="30"/>
       <c r="P68" s="30"/>
@@ -8555,7 +8613,7 @@
         <v>216</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
@@ -8691,7 +8749,7 @@
         <v>216</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
@@ -8759,7 +8817,7 @@
         <v>216</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -8810,13 +8868,13 @@
       <c r="G73" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H73" s="44">
+      <c r="H73" s="38">
         <v>85</v>
       </c>
-      <c r="I73" s="45" t="s">
+      <c r="I73" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J73" s="45" t="s">
+      <c r="J73" s="39" t="s">
         <v>34</v>
       </c>
       <c r="K73" s="5" t="s">
@@ -8878,13 +8936,13 @@
       <c r="G74" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H74" s="44">
+      <c r="H74" s="38">
         <v>85</v>
       </c>
-      <c r="I74" s="45" t="s">
+      <c r="I74" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J74" s="45" t="s">
+      <c r="J74" s="39" t="s">
         <v>34</v>
       </c>
       <c r="K74" s="5" t="s">
@@ -8897,7 +8955,7 @@
         <v>216</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O74" s="5" t="s">
         <v>544</v>
@@ -8942,7 +9000,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>31</v>
@@ -8960,14 +9018,14 @@
         <v>34</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L75" s="5"/>
       <c r="M75" s="5" t="s">
         <v>430</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
@@ -8988,7 +9046,7 @@
         <v>50</v>
       </c>
       <c r="AA75" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
@@ -9018,13 +9076,13 @@
       <c r="G76" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H76" s="44">
+      <c r="H76" s="38">
         <v>85</v>
       </c>
-      <c r="I76" s="45" t="s">
+      <c r="I76" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J76" s="45" t="s">
+      <c r="J76" s="39" t="s">
         <v>34</v>
       </c>
       <c r="K76" s="5" t="s">
@@ -9144,10 +9202,10 @@
         <v>5</v>
       </c>
       <c r="E78" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>57</v>
@@ -9162,14 +9220,14 @@
         <v>33</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L78" s="5"/>
       <c r="M78" s="5" t="s">
         <v>431</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
@@ -9212,13 +9270,13 @@
       <c r="G79" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H79" s="44">
+      <c r="H79" s="38">
         <v>85</v>
       </c>
-      <c r="I79" s="45" t="s">
+      <c r="I79" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J79" s="45" t="s">
+      <c r="J79" s="39" t="s">
         <v>34</v>
       </c>
       <c r="K79" s="5" t="s">
@@ -9295,7 +9353,7 @@
         <v>431</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
@@ -9353,7 +9411,9 @@
       <c r="J81" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K81" s="5"/>
+      <c r="K81" s="5" t="s">
+        <v>635</v>
+      </c>
       <c r="L81" s="5"/>
       <c r="M81" s="5" t="s">
         <v>429</v>
@@ -9375,7 +9435,7 @@
       <c r="X81" s="14"/>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA81" s="8" t="s">
         <v>562</v>
@@ -9470,7 +9530,7 @@
         <v>34</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>590</v>
@@ -9488,14 +9548,14 @@
         <v>33</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L83" s="5"/>
       <c r="M83" s="5" t="s">
         <v>431</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
@@ -9531,7 +9591,7 @@
         <v>16</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>569</v>
@@ -9549,14 +9609,14 @@
         <v>33</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
@@ -9591,7 +9651,7 @@
         <v>43</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>590</v>
@@ -9609,14 +9669,14 @@
         <v>33</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L85" s="5"/>
       <c r="M85" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
@@ -9637,238 +9697,238 @@
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
     </row>
-    <row r="86" spans="1:32" s="42" customFormat="1" ht="50" customHeight="1">
-      <c r="A86" s="37" t="s">
+    <row r="86" spans="1:32" ht="50" customHeight="1">
+      <c r="A86" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B86" s="38">
+      <c r="B86" s="5">
         <v>2023</v>
       </c>
-      <c r="C86" s="39">
+      <c r="C86" s="4">
         <v>15</v>
       </c>
-      <c r="D86" s="38">
+      <c r="D86" s="5">
         <v>23</v>
       </c>
-      <c r="E86" s="40" t="s">
+      <c r="E86" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="F86" s="38" t="s">
+      <c r="F86" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="G86" s="38" t="s">
+      <c r="G86" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H86" s="38">
+      <c r="H86" s="5">
         <v>69</v>
       </c>
-      <c r="I86" s="38" t="s">
+      <c r="I86" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J86" s="38" t="s">
+      <c r="J86" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K86" s="38" t="s">
+      <c r="K86" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38" t="s">
+      <c r="L86" s="5"/>
+      <c r="M86" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="N86" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="38"/>
-      <c r="S86" s="41"/>
-      <c r="T86" s="38"/>
-      <c r="U86" s="38"/>
-      <c r="V86" s="38"/>
-      <c r="W86" s="38"/>
-      <c r="X86" s="43"/>
-      <c r="Y86" s="38"/>
-      <c r="Z86" s="40" t="s">
+      <c r="N86" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="14"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="AA86" s="40" t="s">
+      <c r="AA86" s="37" t="s">
         <v>571</v>
       </c>
-      <c r="AB86" s="38"/>
-      <c r="AC86" s="38"/>
-      <c r="AD86" s="38"/>
-      <c r="AE86" s="38"/>
-      <c r="AF86" s="38"/>
-    </row>
-    <row r="87" spans="1:32" s="42" customFormat="1" ht="50" customHeight="1">
-      <c r="A87" s="37"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="41"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="38"/>
-      <c r="O87" s="38"/>
-      <c r="P87" s="38"/>
-      <c r="Q87" s="38"/>
-      <c r="R87" s="38"/>
-      <c r="S87" s="38"/>
-      <c r="T87" s="38"/>
-      <c r="U87" s="38"/>
-      <c r="V87" s="38"/>
-      <c r="W87" s="38"/>
-      <c r="X87" s="43"/>
-      <c r="Y87" s="38"/>
-      <c r="Z87" s="38"/>
-      <c r="AA87" s="38"/>
-      <c r="AB87" s="38"/>
-      <c r="AC87" s="38"/>
-      <c r="AD87" s="38"/>
-      <c r="AE87" s="38"/>
-      <c r="AF87" s="38"/>
-    </row>
-    <row r="88" spans="1:32" s="42" customFormat="1" ht="50" customHeight="1">
-      <c r="A88" s="37"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="38"/>
-      <c r="Q88" s="38"/>
-      <c r="R88" s="38"/>
-      <c r="S88" s="41"/>
-      <c r="T88" s="38"/>
-      <c r="U88" s="38"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="38"/>
-      <c r="X88" s="43"/>
-      <c r="Y88" s="38"/>
-      <c r="Z88" s="40"/>
-      <c r="AA88" s="38"/>
-      <c r="AB88" s="38"/>
-      <c r="AC88" s="38"/>
-      <c r="AD88" s="38"/>
-      <c r="AE88" s="38"/>
-      <c r="AF88" s="38"/>
-    </row>
-    <row r="89" spans="1:32" s="42" customFormat="1" ht="50" customHeight="1">
-      <c r="A89" s="37"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-      <c r="O89" s="38"/>
-      <c r="P89" s="38"/>
-      <c r="Q89" s="38"/>
-      <c r="R89" s="38"/>
-      <c r="S89" s="38"/>
-      <c r="T89" s="38"/>
-      <c r="U89" s="38"/>
-      <c r="V89" s="38"/>
-      <c r="W89" s="38"/>
-      <c r="X89" s="43"/>
-      <c r="Y89" s="38"/>
-      <c r="Z89" s="38"/>
-      <c r="AA89" s="38"/>
-      <c r="AB89" s="38"/>
-      <c r="AC89" s="38"/>
-      <c r="AD89" s="38"/>
-      <c r="AE89" s="38"/>
-      <c r="AF89" s="38"/>
-    </row>
-    <row r="90" spans="1:32" s="42" customFormat="1" ht="50" customHeight="1">
-      <c r="A90" s="37"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="38"/>
-      <c r="O90" s="38"/>
-      <c r="P90" s="38"/>
-      <c r="Q90" s="38"/>
-      <c r="R90" s="38"/>
-      <c r="S90" s="41"/>
-      <c r="T90" s="38"/>
-      <c r="U90" s="38"/>
-      <c r="V90" s="38"/>
-      <c r="W90" s="38"/>
-      <c r="X90" s="43"/>
-      <c r="Y90" s="38"/>
-      <c r="Z90" s="40"/>
-      <c r="AA90" s="38"/>
-      <c r="AB90" s="38"/>
-      <c r="AC90" s="38"/>
-      <c r="AD90" s="38"/>
-      <c r="AE90" s="38"/>
-      <c r="AF90" s="38"/>
-    </row>
-    <row r="91" spans="1:32" s="42" customFormat="1" ht="50" customHeight="1">
-      <c r="A91" s="37"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="38"/>
-      <c r="O91" s="38"/>
-      <c r="P91" s="38"/>
-      <c r="Q91" s="38"/>
-      <c r="R91" s="38"/>
-      <c r="S91" s="38"/>
-      <c r="T91" s="38"/>
-      <c r="U91" s="38"/>
-      <c r="V91" s="38"/>
-      <c r="W91" s="38"/>
-      <c r="X91" s="43"/>
-      <c r="Y91" s="38"/>
-      <c r="Z91" s="38"/>
-      <c r="AA91" s="38"/>
-      <c r="AB91" s="38"/>
-      <c r="AC91" s="38"/>
-      <c r="AD91" s="38"/>
-      <c r="AE91" s="38"/>
-      <c r="AF91" s="38"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AF86" s="5"/>
+    </row>
+    <row r="87" spans="1:32" ht="50" customHeight="1">
+      <c r="A87" s="1"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="7"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="14"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AF87" s="5"/>
+    </row>
+    <row r="88" spans="1:32" ht="50" customHeight="1">
+      <c r="A88" s="1"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="14"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="37"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+      <c r="AE88" s="5"/>
+      <c r="AF88" s="5"/>
+    </row>
+    <row r="89" spans="1:32" ht="50" customHeight="1">
+      <c r="A89" s="1"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="14"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="5"/>
+      <c r="AF89" s="5"/>
+    </row>
+    <row r="90" spans="1:32" ht="50" customHeight="1">
+      <c r="A90" s="1"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="14"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="37"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5"/>
+    </row>
+    <row r="91" spans="1:32" ht="50" customHeight="1">
+      <c r="A91" s="1"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="14"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
+      <c r="AE91" s="5"/>
+      <c r="AF91" s="5"/>
     </row>
     <row r="94" spans="1:32" ht="50" customHeight="1">
       <c r="A94" s="1"/>
@@ -10051,9 +10111,7 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
-      <c r="K102" s="5" t="s">
-        <v>594</v>
-      </c>
+      <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>

--- a/Literature_Review/data/Performance_Analysis_literature_review.xlsx
+++ b/Literature_Review/data/Performance_Analysis_literature_review.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianshuliao/Documents/Research/Android_Performance/Artifacts_of_Performance_Issue_Analysis/Literature_Review/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianshuliao/Documents/Research/Android_Performance/Performance_Analysis_Source_Code/Literature_Review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F11FFA-CA34-DC40-A94B-C1D67F4A18EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830FC329-3446-B94C-8A71-700AE999F274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3128,18 +3128,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3157,7 +3151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3237,25 +3231,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3268,6 +3243,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3487,10 +3478,10 @@
   <dimension ref="A1:AG1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K68" sqref="K68"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="50" customHeight="1"/>
@@ -6241,7 +6232,7 @@
       <c r="G35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="29">
         <v>40</v>
       </c>
       <c r="I35" s="5" t="s">
@@ -7109,13 +7100,13 @@
       <c r="G46" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H46" s="38">
+      <c r="H46" s="31">
         <v>85</v>
       </c>
-      <c r="I46" s="39" t="s">
+      <c r="I46" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J46" s="39" t="s">
+      <c r="J46" s="32" t="s">
         <v>34</v>
       </c>
       <c r="K46" s="5" t="s">
@@ -7171,13 +7162,13 @@
       <c r="G47" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H47" s="38">
+      <c r="H47" s="31">
         <v>85</v>
       </c>
-      <c r="I47" s="39" t="s">
+      <c r="I47" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J47" s="39" t="s">
+      <c r="J47" s="32" t="s">
         <v>34</v>
       </c>
       <c r="K47" s="5" t="s">
@@ -7565,13 +7556,13 @@
       <c r="G53" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H53" s="38">
+      <c r="H53" s="31">
         <v>85</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="I53" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="39" t="s">
+      <c r="J53" s="32" t="s">
         <v>34</v>
       </c>
       <c r="K53" s="5" t="s">
@@ -8504,75 +8495,75 @@
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
     </row>
-    <row r="68" spans="1:32" s="35" customFormat="1" ht="50" customHeight="1">
-      <c r="A68" s="29" t="s">
+    <row r="68" spans="1:32" s="38" customFormat="1" ht="50" customHeight="1">
+      <c r="A68" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="B68" s="30">
+      <c r="B68" s="34">
         <v>2023</v>
       </c>
-      <c r="C68" s="31">
+      <c r="C68" s="35">
         <v>19</v>
       </c>
-      <c r="D68" s="30">
+      <c r="D68" s="34">
         <v>4</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="30" t="s">
         <v>526</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G68" s="30" t="s">
+      <c r="G68" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="34">
         <v>50</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="J68" s="5" t="s">
+      <c r="J68" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K68" s="30" t="s">
+      <c r="K68" s="34" t="s">
         <v>527</v>
       </c>
-      <c r="L68" s="30" t="s">
+      <c r="L68" s="34" t="s">
         <v>528</v>
       </c>
-      <c r="M68" s="30" t="s">
+      <c r="M68" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="N68" s="30" t="s">
+      <c r="N68" s="34" t="s">
         <v>618</v>
       </c>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30" t="s">
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="R68" s="30"/>
-      <c r="S68" s="33" t="s">
+      <c r="R68" s="34"/>
+      <c r="S68" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="T68" s="30"/>
-      <c r="U68" s="30"/>
-      <c r="V68" s="30"/>
-      <c r="W68" s="30"/>
-      <c r="X68" s="34"/>
-      <c r="Y68" s="30"/>
-      <c r="Z68" s="32" t="s">
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="34"/>
+      <c r="W68" s="34"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AA68" s="32" t="s">
+      <c r="AA68" s="30" t="s">
         <v>529</v>
       </c>
-      <c r="AB68" s="30"/>
-      <c r="AC68" s="30"/>
-      <c r="AD68" s="30"/>
-      <c r="AE68" s="30"/>
-      <c r="AF68" s="30"/>
+      <c r="AB68" s="34"/>
+      <c r="AC68" s="34"/>
+      <c r="AD68" s="34"/>
+      <c r="AE68" s="34"/>
+      <c r="AF68" s="34"/>
     </row>
     <row r="69" spans="1:32" ht="50" customHeight="1">
       <c r="A69" s="1" t="s">
@@ -8868,13 +8859,13 @@
       <c r="G73" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H73" s="38">
+      <c r="H73" s="31">
         <v>85</v>
       </c>
-      <c r="I73" s="39" t="s">
+      <c r="I73" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J73" s="39" t="s">
+      <c r="J73" s="32" t="s">
         <v>34</v>
       </c>
       <c r="K73" s="5" t="s">
@@ -8936,13 +8927,13 @@
       <c r="G74" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H74" s="38">
+      <c r="H74" s="31">
         <v>85</v>
       </c>
-      <c r="I74" s="39" t="s">
+      <c r="I74" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J74" s="39" t="s">
+      <c r="J74" s="32" t="s">
         <v>34</v>
       </c>
       <c r="K74" s="5" t="s">
@@ -9076,13 +9067,13 @@
       <c r="G76" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H76" s="38">
+      <c r="H76" s="31">
         <v>85</v>
       </c>
-      <c r="I76" s="39" t="s">
+      <c r="I76" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J76" s="39" t="s">
+      <c r="J76" s="32" t="s">
         <v>34</v>
       </c>
       <c r="K76" s="5" t="s">
@@ -9270,13 +9261,13 @@
       <c r="G79" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H79" s="38">
+      <c r="H79" s="31">
         <v>85</v>
       </c>
-      <c r="I79" s="39" t="s">
+      <c r="I79" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J79" s="39" t="s">
+      <c r="J79" s="32" t="s">
         <v>34</v>
       </c>
       <c r="K79" s="5" t="s">
@@ -9710,7 +9701,7 @@
       <c r="D86" s="5">
         <v>23</v>
       </c>
-      <c r="E86" s="37" t="s">
+      <c r="E86" s="30" t="s">
         <v>568</v>
       </c>
       <c r="F86" s="5" t="s">
@@ -9749,10 +9740,10 @@
       <c r="W86" s="5"/>
       <c r="X86" s="14"/>
       <c r="Y86" s="5"/>
-      <c r="Z86" s="37" t="s">
+      <c r="Z86" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AA86" s="37" t="s">
+      <c r="AA86" s="30" t="s">
         <v>571</v>
       </c>
       <c r="AB86" s="5"/>
@@ -9766,7 +9757,7 @@
       <c r="B87" s="5"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="37"/>
+      <c r="E87" s="30"/>
       <c r="F87" s="5"/>
       <c r="G87" s="7"/>
       <c r="I87" s="5"/>
@@ -9799,7 +9790,7 @@
       <c r="B88" s="5"/>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="37"/>
+      <c r="E88" s="30"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -9820,7 +9811,7 @@
       <c r="W88" s="5"/>
       <c r="X88" s="14"/>
       <c r="Y88" s="5"/>
-      <c r="Z88" s="37"/>
+      <c r="Z88" s="30"/>
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
@@ -9833,7 +9824,7 @@
       <c r="B89" s="5"/>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="37"/>
+      <c r="E89" s="30"/>
       <c r="F89" s="5"/>
       <c r="G89" s="7"/>
       <c r="H89" s="5"/>
@@ -9867,7 +9858,7 @@
       <c r="B90" s="5"/>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="37"/>
+      <c r="E90" s="30"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -9888,7 +9879,7 @@
       <c r="W90" s="5"/>
       <c r="X90" s="14"/>
       <c r="Y90" s="5"/>
-      <c r="Z90" s="37"/>
+      <c r="Z90" s="30"/>
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
@@ -9901,7 +9892,7 @@
       <c r="B91" s="5"/>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
-      <c r="E91" s="37"/>
+      <c r="E91" s="30"/>
       <c r="F91" s="5"/>
       <c r="G91" s="7"/>
       <c r="H91" s="5"/>

--- a/Literature_Review/data/Performance_Analysis_literature_review.xlsx
+++ b/Literature_Review/data/Performance_Analysis_literature_review.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianshuliao/Documents/Research/Android_Performance/Performance_Analysis_Source_Code/Literature_Review/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianshuliao/Documents/Research/Android_Performance/Artifacts_of_Performance_Issue_Analysis/Literature_Review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830FC329-3446-B94C-8A71-700AE999F274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35952ADF-87C1-1945-95CB-826A7287F7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2686,15 +2686,6 @@
 https://zenodo.org/records/7262615</t>
   </si>
   <si>
-    <t>调用 startUpdatingLocation() 时，如果配置为：
-desiredAccuracy = best ➤ 高精度 ➤ 高能耗
-distanceFilter = none ➤ 实时更新 ➤ 高频唤醒 ➤ 高能耗
-如果配置为：
-desiredAccuracy = kilometer
-distanceFilter = 28 meters
-➤ 则能耗显著降低</t>
-  </si>
-  <si>
     <t>International Conference on Software Engineering Companion</t>
   </si>
   <si>
@@ -2957,12 +2948,6 @@
 AsyncTask</t>
   </si>
   <si>
-    <t>Energy Consumption: Wakelock, Resource, Inefficient Method, UI Rendering
-Memory Consumption: Inefficient Data Structure (Data Type), Resource, Activity, Fragment, Leaking Thread (启动的线程生命周期超出组件生命周期，可能继续执行引用无效的 UI 元素，引发异常或内存泄漏)
-Responsiveness: UI Rendering, View, Loop, Database Operation, Main Thread
-GPU Usage: UI Rendering</t>
-  </si>
-  <si>
     <t>Resource
 Wakelock
 Redundant Frames
@@ -3032,6 +3017,21 @@
   <si>
     <t>Performance
 Energy Consumption</t>
+  </si>
+  <si>
+    <t>When calling startUpdatingLocation(), if the configuration is:
+desiredAccuracy = best ➤ high precision ➤ high energy consumption
+distanceFilter = none ➤ real-time updates ➤ frequent wake-ups ➤ high energy consumption
+Then, if the configuration is changed to:
+desiredAccuracy = kilometer
+distanceFilter = 28 meters
+➤ energy consumption is significantly reduced.</t>
+  </si>
+  <si>
+    <t>Energy Consumption: Wakelock, Resource, Inefficient Method, UI Rendering
+Memory Consumption: Inefficient Data Structure (Data Type), Resource, Activity, Fragment, Leaking Thread (Threads that outlive the lifecycle of the component that started them may continue to access invalid UI elements, causing exceptions or memory leaks)
+Responsiveness: UI Rendering, View, Loop, Database Operation, Main Thread
+GPU Usage: UI Rendering</t>
   </si>
 </sst>
 </file>
@@ -3151,7 +3151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3243,22 +3243,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3478,10 +3462,10 @@
   <dimension ref="A1:AG1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="50" customHeight="1"/>
@@ -5546,7 +5530,7 @@
         <v>216</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5" t="s">
@@ -7029,7 +7013,7 @@
         <v>479</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>57</v>
@@ -7110,7 +7094,7 @@
         <v>34</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5" t="s">
@@ -7172,7 +7156,7 @@
         <v>34</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5" t="s">
@@ -7221,7 +7205,7 @@
         <v>482</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>57</v>
@@ -7236,7 +7220,7 @@
         <v>33</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5" t="s">
@@ -7302,7 +7286,7 @@
         <v>34</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5" t="s">
@@ -7353,7 +7337,7 @@
         <v>484</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>57</v>
@@ -7368,7 +7352,7 @@
         <v>34</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5" t="s">
@@ -7419,7 +7403,7 @@
         <v>485</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>57</v>
@@ -7434,7 +7418,7 @@
         <v>34</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5" t="s">
@@ -7485,7 +7469,7 @@
         <v>486</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>57</v>
@@ -7566,7 +7550,7 @@
         <v>34</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5" t="s">
@@ -7741,7 +7725,7 @@
         <v>490</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>57</v>
@@ -7756,7 +7740,7 @@
         <v>33</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5" t="s">
@@ -7867,7 +7851,7 @@
         <v>493</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>57</v>
@@ -7882,7 +7866,7 @@
         <v>33</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
@@ -8053,7 +8037,7 @@
         <v>495</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>32</v>
@@ -8068,7 +8052,7 @@
         <v>33</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L61" s="5"/>
       <c r="M61" s="5" t="s">
@@ -8119,7 +8103,7 @@
         <v>496</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>32</v>
@@ -8180,7 +8164,7 @@
         <v>497</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>32</v>
@@ -8195,7 +8179,7 @@
         <v>33</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L63" s="5"/>
       <c r="M63" s="5" t="s">
@@ -8248,7 +8232,7 @@
         <v>498</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>32</v>
@@ -8314,7 +8298,7 @@
         <v>499</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>32</v>
@@ -8380,7 +8364,7 @@
         <v>501</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>32</v>
@@ -8446,7 +8430,7 @@
         <v>502</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>32</v>
@@ -8468,7 +8452,7 @@
         <v>306</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
@@ -8495,79 +8479,79 @@
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
     </row>
-    <row r="68" spans="1:32" s="38" customFormat="1" ht="50" customHeight="1">
-      <c r="A68" s="33" t="s">
+    <row r="68" spans="1:32" ht="50" customHeight="1">
+      <c r="A68" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B68" s="34">
+      <c r="B68" s="5">
         <v>2023</v>
       </c>
-      <c r="C68" s="35">
+      <c r="C68" s="4">
         <v>19</v>
       </c>
-      <c r="D68" s="34">
+      <c r="D68" s="5">
         <v>4</v>
       </c>
       <c r="E68" s="30" t="s">
         <v>526</v>
       </c>
-      <c r="F68" s="34" t="s">
+      <c r="F68" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G68" s="34" t="s">
+      <c r="G68" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H68" s="34">
+      <c r="H68" s="5">
         <v>50</v>
       </c>
-      <c r="I68" s="34" t="s">
+      <c r="I68" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J68" s="34" t="s">
+      <c r="J68" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K68" s="34" t="s">
+      <c r="K68" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="L68" s="34" t="s">
+      <c r="L68" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="M68" s="34" t="s">
+      <c r="M68" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N68" s="34" t="s">
-        <v>618</v>
-      </c>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34" t="s">
+      <c r="N68" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R68" s="34"/>
-      <c r="S68" s="36" t="s">
+      <c r="R68" s="5"/>
+      <c r="S68" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T68" s="34"/>
-      <c r="U68" s="34"/>
-      <c r="V68" s="34"/>
-      <c r="W68" s="34"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="34"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="5"/>
       <c r="Z68" s="30" t="s">
         <v>50</v>
       </c>
       <c r="AA68" s="30" t="s">
         <v>529</v>
       </c>
-      <c r="AB68" s="34"/>
-      <c r="AC68" s="34"/>
-      <c r="AD68" s="34"/>
-      <c r="AE68" s="34"/>
-      <c r="AF68" s="34"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
     </row>
     <row r="69" spans="1:32" ht="50" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B69" s="5">
         <v>2019</v>
@@ -8579,13 +8563,13 @@
         <v>27</v>
       </c>
       <c r="E69" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>591</v>
       </c>
       <c r="H69" s="5">
         <v>63</v>
@@ -8597,14 +8581,14 @@
         <v>33</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L69" s="5"/>
       <c r="M69" s="5" t="s">
         <v>216</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
@@ -8623,7 +8607,7 @@
         <v>50</v>
       </c>
       <c r="AA69" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
@@ -8701,7 +8685,7 @@
     </row>
     <row r="71" spans="1:32" ht="50" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B71" s="5">
         <v>2020</v>
@@ -8713,10 +8697,10 @@
         <v>6</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>57</v>
@@ -8731,16 +8715,16 @@
         <v>34</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M71" s="5" t="s">
         <v>216</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
@@ -8761,7 +8745,7 @@
         <v>52</v>
       </c>
       <c r="AA71" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
@@ -8771,7 +8755,7 @@
     </row>
     <row r="72" spans="1:32" ht="50" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B72" s="5">
         <v>2020</v>
@@ -8783,10 +8767,10 @@
         <v>5</v>
       </c>
       <c r="E72" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>585</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>586</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>57</v>
@@ -8801,14 +8785,14 @@
         <v>33</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L72" s="5"/>
       <c r="M72" s="5" t="s">
         <v>216</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -8829,7 +8813,7 @@
         <v>50</v>
       </c>
       <c r="AA72" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
@@ -8946,10 +8930,10 @@
         <v>216</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>544</v>
+        <v>635</v>
       </c>
       <c r="P74" s="5"/>
       <c r="Q74" s="5" t="s">
@@ -8979,7 +8963,7 @@
     </row>
     <row r="75" spans="1:32" ht="50" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B75" s="5">
         <v>2024</v>
@@ -8991,7 +8975,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>31</v>
@@ -9009,14 +8993,14 @@
         <v>34</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L75" s="5"/>
       <c r="M75" s="5" t="s">
         <v>430</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
@@ -9037,7 +9021,7 @@
         <v>50</v>
       </c>
       <c r="AA75" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
@@ -9059,10 +9043,10 @@
         <v>2</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>57</v>
@@ -9077,21 +9061,21 @@
         <v>34</v>
       </c>
       <c r="K76" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="L76" s="5" t="s">
         <v>547</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>548</v>
       </c>
       <c r="M76" s="5" t="s">
         <v>216</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R76" s="5"/>
       <c r="S76" s="7" t="s">
@@ -9127,7 +9111,7 @@
         <v>31</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>31</v>
@@ -9145,19 +9129,19 @@
         <v>34</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="5" t="s">
         <v>216</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R77" s="5"/>
       <c r="S77" s="5" t="s">
@@ -9181,7 +9165,7 @@
     </row>
     <row r="78" spans="1:32" ht="50" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B78" s="5">
         <v>2017</v>
@@ -9193,10 +9177,10 @@
         <v>5</v>
       </c>
       <c r="E78" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>609</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>57</v>
@@ -9211,14 +9195,14 @@
         <v>33</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L78" s="5"/>
       <c r="M78" s="5" t="s">
         <v>431</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
@@ -9253,7 +9237,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>56</v>
@@ -9278,7 +9262,7 @@
         <v>291</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
@@ -9319,10 +9303,10 @@
         <v>6</v>
       </c>
       <c r="E80" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>556</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>557</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>57</v>
@@ -9337,14 +9321,14 @@
         <v>33</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L80" s="5"/>
       <c r="M80" s="5" t="s">
         <v>431</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
@@ -9385,10 +9369,10 @@
         <v>5</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>57</v>
@@ -9403,14 +9387,14 @@
         <v>33</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="L81" s="5"/>
       <c r="M81" s="5" t="s">
         <v>429</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
@@ -9426,10 +9410,10 @@
       <c r="X81" s="14"/>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AA81" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
@@ -9451,10 +9435,10 @@
         <v>5</v>
       </c>
       <c r="E82" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>564</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>57</v>
@@ -9472,13 +9456,13 @@
         <v>291</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M82" s="5" t="s">
         <v>291</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
@@ -9486,7 +9470,7 @@
         <v>48</v>
       </c>
       <c r="R82" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S82" s="7" t="s">
         <v>38</v>
@@ -9509,7 +9493,7 @@
     </row>
     <row r="83" spans="1:32" ht="50" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B83" s="5">
         <v>2022</v>
@@ -9521,10 +9505,10 @@
         <v>34</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>32</v>
@@ -9539,14 +9523,14 @@
         <v>33</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L83" s="5"/>
       <c r="M83" s="5" t="s">
         <v>431</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
@@ -9570,7 +9554,7 @@
     </row>
     <row r="84" spans="1:32" ht="50" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B84" s="5">
         <v>2021</v>
@@ -9582,10 +9566,10 @@
         <v>16</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>32</v>
@@ -9600,14 +9584,14 @@
         <v>33</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
@@ -9630,7 +9614,7 @@
     </row>
     <row r="85" spans="1:32" ht="50" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B85" s="5">
         <v>2020</v>
@@ -9642,10 +9626,10 @@
         <v>43</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>32</v>
@@ -9660,14 +9644,14 @@
         <v>33</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L85" s="5"/>
       <c r="M85" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
@@ -9702,10 +9686,10 @@
         <v>23</v>
       </c>
       <c r="E86" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>569</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>32</v>
@@ -9720,14 +9704,14 @@
         <v>33</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5" t="s">
         <v>431</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
@@ -9744,7 +9728,7 @@
         <v>50</v>
       </c>
       <c r="AA86" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
